--- a/data/pca/factorExposure/factorExposure_2010-02-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-10.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006137613072459784</v>
+        <v>0.01699138415778429</v>
       </c>
       <c r="C2">
-        <v>-0.01351145058680804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0009196958809324919</v>
+      </c>
+      <c r="D2">
+        <v>-0.007116199594242438</v>
+      </c>
+      <c r="E2">
+        <v>-0.000186330909999864</v>
+      </c>
+      <c r="F2">
+        <v>0.009088501641458854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03353345774844449</v>
+        <v>0.09392957976426428</v>
       </c>
       <c r="C4">
-        <v>-0.1215783466291809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.015628397153954</v>
+      </c>
+      <c r="D4">
+        <v>-0.08314487894758636</v>
+      </c>
+      <c r="E4">
+        <v>-0.0278917807973608</v>
+      </c>
+      <c r="F4">
+        <v>-0.03020381839968632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0438636301602125</v>
+        <v>0.1565820885589119</v>
       </c>
       <c r="C6">
-        <v>-0.1059224120213858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02494950602357351</v>
+      </c>
+      <c r="D6">
+        <v>0.02252491061894914</v>
+      </c>
+      <c r="E6">
+        <v>-0.009762592530848553</v>
+      </c>
+      <c r="F6">
+        <v>-0.04658110208087711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009230795820904476</v>
+        <v>0.06021174251139168</v>
       </c>
       <c r="C7">
-        <v>-0.07394843190634781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0008582884165423915</v>
+      </c>
+      <c r="D7">
+        <v>-0.05116903538031894</v>
+      </c>
+      <c r="E7">
+        <v>-0.01109724066564145</v>
+      </c>
+      <c r="F7">
+        <v>-0.04130073999032639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.007417281041901054</v>
+        <v>0.05863680458269639</v>
       </c>
       <c r="C8">
-        <v>-0.05409637176771095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01361905017468603</v>
+      </c>
+      <c r="D8">
+        <v>-0.03168907003480322</v>
+      </c>
+      <c r="E8">
+        <v>-0.01606808448054049</v>
+      </c>
+      <c r="F8">
+        <v>0.02913877350724809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02890214086591573</v>
+        <v>0.07187554819697067</v>
       </c>
       <c r="C9">
-        <v>-0.09480754187749031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01150794571304404</v>
+      </c>
+      <c r="D9">
+        <v>-0.08423060299546434</v>
+      </c>
+      <c r="E9">
+        <v>-0.02185539931767862</v>
+      </c>
+      <c r="F9">
+        <v>-0.04568385481687539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.005706119991417321</v>
+        <v>0.09509711269347522</v>
       </c>
       <c r="C10">
-        <v>-0.05185833737014868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01857841227060802</v>
+      </c>
+      <c r="D10">
+        <v>0.1696932319369812</v>
+      </c>
+      <c r="E10">
+        <v>0.0379146360972764</v>
+      </c>
+      <c r="F10">
+        <v>0.0573444815214287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03115165704880516</v>
+        <v>0.08769305890673003</v>
       </c>
       <c r="C11">
-        <v>-0.102235241645339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01104558474105643</v>
+      </c>
+      <c r="D11">
+        <v>-0.1171496282546051</v>
+      </c>
+      <c r="E11">
+        <v>-0.04677319976928367</v>
+      </c>
+      <c r="F11">
+        <v>-0.01926181381923768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02851176831542902</v>
+        <v>0.09231051709034423</v>
       </c>
       <c r="C12">
-        <v>-0.110284182397712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008481353466790962</v>
+      </c>
+      <c r="D12">
+        <v>-0.1288363519834356</v>
+      </c>
+      <c r="E12">
+        <v>-0.04674543076831433</v>
+      </c>
+      <c r="F12">
+        <v>-0.02148537393310661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0084789040285413</v>
+        <v>0.04346865159032993</v>
       </c>
       <c r="C13">
-        <v>-0.04001365152667446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003870504794094212</v>
+      </c>
+      <c r="D13">
+        <v>-0.04798891470490708</v>
+      </c>
+      <c r="E13">
+        <v>0.01242129897713418</v>
+      </c>
+      <c r="F13">
+        <v>-0.001948908644275453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01464324422823027</v>
+        <v>0.02252775550318782</v>
       </c>
       <c r="C14">
-        <v>-0.02488367641062653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0139530789145897</v>
+      </c>
+      <c r="D14">
+        <v>-0.0332084673134008</v>
+      </c>
+      <c r="E14">
+        <v>-0.01627922266072139</v>
+      </c>
+      <c r="F14">
+        <v>-0.01428421134349437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01246654522791872</v>
+        <v>0.03113353081229214</v>
       </c>
       <c r="C15">
-        <v>-0.02406123207267191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005123675155436437</v>
+      </c>
+      <c r="D15">
+        <v>-0.04501487328568061</v>
+      </c>
+      <c r="E15">
+        <v>-0.00699129644741721</v>
+      </c>
+      <c r="F15">
+        <v>-0.02187176952389288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01926219141010183</v>
+        <v>0.07324298431163813</v>
       </c>
       <c r="C16">
-        <v>-0.1099781322509349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002029764043190174</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261789066415917</v>
+      </c>
+      <c r="E16">
+        <v>-0.06219785543926235</v>
+      </c>
+      <c r="F16">
+        <v>-0.0220248286583646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02644877822625851</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003626052959544067</v>
+      </c>
+      <c r="D18">
+        <v>-0.02151530306642135</v>
+      </c>
+      <c r="E18">
+        <v>0.004962232782703837</v>
+      </c>
+      <c r="F18">
+        <v>0.01069071092716234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01479464884910364</v>
+        <v>0.06007492899535215</v>
       </c>
       <c r="C20">
-        <v>-0.06202058983661323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0004484754293855944</v>
+      </c>
+      <c r="D20">
+        <v>-0.07692707778249523</v>
+      </c>
+      <c r="E20">
+        <v>-0.05530071617886164</v>
+      </c>
+      <c r="F20">
+        <v>-0.02031475074334842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01165058522988595</v>
+        <v>0.03901651617411525</v>
       </c>
       <c r="C21">
-        <v>-0.02176294492518989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006467021966906811</v>
+      </c>
+      <c r="D21">
+        <v>-0.03605421208834828</v>
+      </c>
+      <c r="E21">
+        <v>0.006830410089499277</v>
+      </c>
+      <c r="F21">
+        <v>0.02676545384993489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.002172100903137155</v>
+        <v>0.04484991883318375</v>
       </c>
       <c r="C22">
-        <v>-0.03716228310556405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0005141184045722889</v>
+      </c>
+      <c r="D22">
+        <v>-0.003884737530768784</v>
+      </c>
+      <c r="E22">
+        <v>-0.02934066904029734</v>
+      </c>
+      <c r="F22">
+        <v>0.030681927338914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.002186386014970066</v>
+        <v>0.04485518729581062</v>
       </c>
       <c r="C23">
-        <v>-0.03718183481360865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0005290813903058584</v>
+      </c>
+      <c r="D23">
+        <v>-0.004023796680944392</v>
+      </c>
+      <c r="E23">
+        <v>-0.02965783857671417</v>
+      </c>
+      <c r="F23">
+        <v>0.03020110444894871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02125453889245648</v>
+        <v>0.0795220047884001</v>
       </c>
       <c r="C24">
-        <v>-0.1072744541439068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.00268849187588274</v>
+      </c>
+      <c r="D24">
+        <v>-0.1203711877635294</v>
+      </c>
+      <c r="E24">
+        <v>-0.05028901040181367</v>
+      </c>
+      <c r="F24">
+        <v>-0.02228628995381901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02576768339279459</v>
+        <v>0.08503350793413367</v>
       </c>
       <c r="C25">
-        <v>-0.1124404878287686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004918231355028793</v>
+      </c>
+      <c r="D25">
+        <v>-0.1092562318256774</v>
+      </c>
+      <c r="E25">
+        <v>-0.03288829227639938</v>
+      </c>
+      <c r="F25">
+        <v>-0.02388796702722276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02348248557254736</v>
+        <v>0.05585767708253057</v>
       </c>
       <c r="C26">
-        <v>-0.04696454147850034</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01439859842079494</v>
+      </c>
+      <c r="D26">
+        <v>-0.0417872908014622</v>
+      </c>
+      <c r="E26">
+        <v>-0.02707989011907984</v>
+      </c>
+      <c r="F26">
+        <v>0.01188875873607308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.005339069713435562</v>
+        <v>0.1423031625026092</v>
       </c>
       <c r="C28">
-        <v>-0.04069859373094731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01807056411899929</v>
+      </c>
+      <c r="D28">
+        <v>0.2643167270814789</v>
+      </c>
+      <c r="E28">
+        <v>0.07076573799587478</v>
+      </c>
+      <c r="F28">
+        <v>-0.007862447094746932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01577803836859297</v>
+        <v>0.02657375857575634</v>
       </c>
       <c r="C29">
-        <v>-0.02789846000656237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008126284630577985</v>
+      </c>
+      <c r="D29">
+        <v>-0.03308949923391733</v>
+      </c>
+      <c r="E29">
+        <v>-0.01078170049803785</v>
+      </c>
+      <c r="F29">
+        <v>0.01078741305580331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02191827549274312</v>
+        <v>0.06173074968500449</v>
       </c>
       <c r="C30">
-        <v>-0.1241959574813093</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004335217138368264</v>
+      </c>
+      <c r="D30">
+        <v>-0.08612019083988312</v>
+      </c>
+      <c r="E30">
+        <v>-0.0200505668953889</v>
+      </c>
+      <c r="F30">
+        <v>-0.08080053825044102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02499579924202182</v>
+        <v>0.04923282233314963</v>
       </c>
       <c r="C31">
-        <v>-0.0320801701495019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01507299234825222</v>
+      </c>
+      <c r="D31">
+        <v>-0.02541780401534128</v>
+      </c>
+      <c r="E31">
+        <v>-0.02720085415722399</v>
+      </c>
+      <c r="F31">
+        <v>0.003514281923571599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01122274363074202</v>
+        <v>0.04893092787932186</v>
       </c>
       <c r="C32">
-        <v>-0.06225621629004278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001241157874782989</v>
+      </c>
+      <c r="D32">
+        <v>-0.03636051785297975</v>
+      </c>
+      <c r="E32">
+        <v>-0.03037682247113556</v>
+      </c>
+      <c r="F32">
+        <v>-0.000473074049016354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02757040224645453</v>
+        <v>0.08937294796992203</v>
       </c>
       <c r="C33">
-        <v>-0.110733388744885</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008213521132337602</v>
+      </c>
+      <c r="D33">
+        <v>-0.09805370407032142</v>
+      </c>
+      <c r="E33">
+        <v>-0.04511885518404176</v>
+      </c>
+      <c r="F33">
+        <v>-0.03296265928085112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02978387675257125</v>
+        <v>0.06800590195474797</v>
       </c>
       <c r="C34">
-        <v>-0.09246569439421318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0114910323080361</v>
+      </c>
+      <c r="D34">
+        <v>-0.1056721000218625</v>
+      </c>
+      <c r="E34">
+        <v>-0.03469407435356849</v>
+      </c>
+      <c r="F34">
+        <v>-0.03189049866428669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003469348192465671</v>
+        <v>0.02438402112044436</v>
       </c>
       <c r="C35">
-        <v>-0.01463634728366459</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002370285844713232</v>
+      </c>
+      <c r="D35">
+        <v>-0.01244599948207546</v>
+      </c>
+      <c r="E35">
+        <v>-0.0115138075588121</v>
+      </c>
+      <c r="F35">
+        <v>-0.001308097164964805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01148648623737761</v>
+        <v>0.02495569095688374</v>
       </c>
       <c r="C36">
-        <v>-0.02808866796517267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007330712395222119</v>
+      </c>
+      <c r="D36">
+        <v>-0.03980447889967016</v>
+      </c>
+      <c r="E36">
+        <v>-0.01583802985664291</v>
+      </c>
+      <c r="F36">
+        <v>-0.0144205448258312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008560765752605343</v>
+        <v>0.001499925059010393</v>
       </c>
       <c r="C38">
-        <v>-0.005426093797382264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002224425017467368</v>
+      </c>
+      <c r="D38">
+        <v>-0.0007136126771834108</v>
+      </c>
+      <c r="E38">
+        <v>-0.001128168885806552</v>
+      </c>
+      <c r="F38">
+        <v>0.0006603849671143982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04532164466924946</v>
+        <v>0.1072617857351894</v>
       </c>
       <c r="C39">
-        <v>-0.1659604673133387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01653141816546532</v>
+      </c>
+      <c r="D39">
+        <v>-0.1526255544905623</v>
+      </c>
+      <c r="E39">
+        <v>-0.05838876792666714</v>
+      </c>
+      <c r="F39">
+        <v>-0.02676508902702835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009291378767235214</v>
+        <v>0.03805412859537564</v>
       </c>
       <c r="C40">
-        <v>-0.009522192575158475</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007041665524537446</v>
+      </c>
+      <c r="D40">
+        <v>-0.0328319926495559</v>
+      </c>
+      <c r="E40">
+        <v>-0.00221277902639112</v>
+      </c>
+      <c r="F40">
+        <v>0.01617362711201371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01406707697856222</v>
+        <v>0.02668949313175517</v>
       </c>
       <c r="C41">
-        <v>-0.02114409884933756</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.00655131521626493</v>
+      </c>
+      <c r="D41">
+        <v>-0.01071901892008877</v>
+      </c>
+      <c r="E41">
+        <v>-0.01220842043606025</v>
+      </c>
+      <c r="F41">
+        <v>0.005564292809933449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0134172694662129</v>
+        <v>0.04017691362923394</v>
       </c>
       <c r="C43">
-        <v>-0.02622365418316243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006602662818465537</v>
+      </c>
+      <c r="D43">
+        <v>-0.02045511947595465</v>
+      </c>
+      <c r="E43">
+        <v>-0.02397141676237568</v>
+      </c>
+      <c r="F43">
+        <v>0.01149589330602039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03943054504377458</v>
+        <v>0.07668629555393788</v>
       </c>
       <c r="C44">
-        <v>-0.1322915726612574</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02077978394343631</v>
+      </c>
+      <c r="D44">
+        <v>-0.09884558133695712</v>
+      </c>
+      <c r="E44">
+        <v>-0.06723267636091576</v>
+      </c>
+      <c r="F44">
+        <v>-0.1522334355806234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004547479493427185</v>
+        <v>0.02375283813264233</v>
       </c>
       <c r="C46">
-        <v>-0.01283517131244077</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003770935320434082</v>
+      </c>
+      <c r="D46">
+        <v>-0.01273419546910971</v>
+      </c>
+      <c r="E46">
+        <v>-0.02233098371068394</v>
+      </c>
+      <c r="F46">
+        <v>0.003773887585864578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01606107819585128</v>
+        <v>0.05072005676889655</v>
       </c>
       <c r="C47">
-        <v>-0.04172854249073341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003319721670526901</v>
+      </c>
+      <c r="D47">
+        <v>-0.01340898645669612</v>
+      </c>
+      <c r="E47">
+        <v>-0.02309531485101773</v>
+      </c>
+      <c r="F47">
+        <v>0.03391620523707307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01394685109224574</v>
+        <v>0.04827084075321045</v>
       </c>
       <c r="C48">
-        <v>-0.04656104338120807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002532351646716176</v>
+      </c>
+      <c r="D48">
+        <v>-0.0509282532278242</v>
+      </c>
+      <c r="E48">
+        <v>0.005828587603427788</v>
+      </c>
+      <c r="F48">
+        <v>-0.006366358531384672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04314690084898203</v>
+        <v>0.2026425226176949</v>
       </c>
       <c r="C49">
-        <v>-0.2101752322205068</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0181382117987718</v>
+      </c>
+      <c r="D49">
+        <v>0.0119777928571154</v>
+      </c>
+      <c r="E49">
+        <v>-0.03084651526206359</v>
+      </c>
+      <c r="F49">
+        <v>-0.03257513840592689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02071571160991332</v>
+        <v>0.04920111132486472</v>
       </c>
       <c r="C50">
-        <v>-0.03998108149053655</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01113015227245454</v>
+      </c>
+      <c r="D50">
+        <v>-0.02487609651879326</v>
+      </c>
+      <c r="E50">
+        <v>-0.02936360659737682</v>
+      </c>
+      <c r="F50">
+        <v>-0.007555035851733839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.001173051382457908</v>
+        <v>0.002314306511392564</v>
       </c>
       <c r="C51">
-        <v>-0.007710173485229318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0005871299357411368</v>
+      </c>
+      <c r="D51">
+        <v>0.002494265311778445</v>
+      </c>
+      <c r="E51">
+        <v>0.0002537744589916856</v>
+      </c>
+      <c r="F51">
+        <v>-0.003433942419397348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03471328255768075</v>
+        <v>0.145050930283758</v>
       </c>
       <c r="C52">
-        <v>-0.1386814343367187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01422355452528417</v>
+      </c>
+      <c r="D52">
+        <v>-0.0484901972162366</v>
+      </c>
+      <c r="E52">
+        <v>-0.0216557482307027</v>
+      </c>
+      <c r="F52">
+        <v>-0.0440069980282576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03462835534766481</v>
+        <v>0.1735480413138918</v>
       </c>
       <c r="C53">
-        <v>-0.1546491060266227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01754018958608198</v>
+      </c>
+      <c r="D53">
+        <v>-0.0065886054626289</v>
+      </c>
+      <c r="E53">
+        <v>-0.03140589710130639</v>
+      </c>
+      <c r="F53">
+        <v>-0.07526551376700269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01471645394609008</v>
+        <v>0.02206010932023121</v>
       </c>
       <c r="C54">
-        <v>-0.0521235751048615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01240033595125028</v>
+      </c>
+      <c r="D54">
+        <v>-0.03264713630623236</v>
+      </c>
+      <c r="E54">
+        <v>-0.01544125248567579</v>
+      </c>
+      <c r="F54">
+        <v>0.002952621831949943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02656410456833249</v>
+        <v>0.1141975730845484</v>
       </c>
       <c r="C55">
-        <v>-0.08796381613554742</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01580059165601694</v>
+      </c>
+      <c r="D55">
+        <v>-0.01025690883212364</v>
+      </c>
+      <c r="E55">
+        <v>-0.02823593981656974</v>
+      </c>
+      <c r="F55">
+        <v>-0.04864750142972199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03874443523803543</v>
+        <v>0.1774650798135521</v>
       </c>
       <c r="C56">
-        <v>-0.1545615472727302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01485688487106265</v>
+      </c>
+      <c r="D56">
+        <v>-0.004483981790838365</v>
+      </c>
+      <c r="E56">
+        <v>-0.038579917950431</v>
+      </c>
+      <c r="F56">
+        <v>-0.05541063041600831</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01450452304939971</v>
+        <v>0.0466348653119313</v>
       </c>
       <c r="C58">
-        <v>-0.04337407009762531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001107450963314678</v>
+      </c>
+      <c r="D58">
+        <v>-0.06707597525114756</v>
+      </c>
+      <c r="E58">
+        <v>-0.02696383613823817</v>
+      </c>
+      <c r="F58">
+        <v>0.039456471923206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01349353390631399</v>
+        <v>0.1713546071779125</v>
       </c>
       <c r="C59">
-        <v>-0.1063038535187801</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01856527256764315</v>
+      </c>
+      <c r="D59">
+        <v>0.22165685798553</v>
+      </c>
+      <c r="E59">
+        <v>0.04765974011174352</v>
+      </c>
+      <c r="F59">
+        <v>0.03145497469675824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.04057232186201678</v>
+        <v>0.2344866907488837</v>
       </c>
       <c r="C60">
-        <v>-0.2732685892623345</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.003642066055571616</v>
+      </c>
+      <c r="D60">
+        <v>-0.04050071661175859</v>
+      </c>
+      <c r="E60">
+        <v>-0.01168973476366476</v>
+      </c>
+      <c r="F60">
+        <v>0.00453527771665607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03190950765827749</v>
+        <v>0.08296501052553108</v>
       </c>
       <c r="C61">
-        <v>-0.1245973391389427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01232398931123896</v>
+      </c>
+      <c r="D61">
+        <v>-0.1162751006530272</v>
+      </c>
+      <c r="E61">
+        <v>-0.03907620311868087</v>
+      </c>
+      <c r="F61">
+        <v>-0.01109725678681266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.0430059140778954</v>
+        <v>0.1694947684929783</v>
       </c>
       <c r="C62">
-        <v>-0.1646330644481354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01847525948600147</v>
+      </c>
+      <c r="D62">
+        <v>-0.00983475607844644</v>
+      </c>
+      <c r="E62">
+        <v>-0.03579777634322598</v>
+      </c>
+      <c r="F62">
+        <v>-0.03816434065138449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01363493038426047</v>
+        <v>0.04341434280592703</v>
       </c>
       <c r="C63">
-        <v>-0.05626887287626606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002406833498292034</v>
+      </c>
+      <c r="D63">
+        <v>-0.05689055961022331</v>
+      </c>
+      <c r="E63">
+        <v>-0.02034811140998862</v>
+      </c>
+      <c r="F63">
+        <v>-0.004109191725937554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02563419728031842</v>
+        <v>0.1105670730145443</v>
       </c>
       <c r="C64">
-        <v>-0.09769528536489473</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01133653952534109</v>
+      </c>
+      <c r="D64">
+        <v>-0.04194887149013882</v>
+      </c>
+      <c r="E64">
+        <v>-0.02092640595841637</v>
+      </c>
+      <c r="F64">
+        <v>-0.02591582611628582</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04621409919544869</v>
+        <v>0.1473456028236519</v>
       </c>
       <c r="C65">
-        <v>-0.1049207700725995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03163105000363513</v>
+      </c>
+      <c r="D65">
+        <v>0.04139210220449636</v>
+      </c>
+      <c r="E65">
+        <v>-0.0007944868642005171</v>
+      </c>
+      <c r="F65">
+        <v>-0.03762516849064967</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04551771670209379</v>
+        <v>0.1278188076594793</v>
       </c>
       <c r="C66">
-        <v>-0.1961646077793339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01436020415298826</v>
+      </c>
+      <c r="D66">
+        <v>-0.1419218552034528</v>
+      </c>
+      <c r="E66">
+        <v>-0.06677610718289989</v>
+      </c>
+      <c r="F66">
+        <v>-0.02936194232960187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0160140329499676</v>
+        <v>0.06326765570340097</v>
       </c>
       <c r="C67">
-        <v>-0.07210196157474698</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.002814802550261895</v>
+      </c>
+      <c r="D67">
+        <v>-0.0558532772554874</v>
+      </c>
+      <c r="E67">
+        <v>-0.01787318091637117</v>
+      </c>
+      <c r="F67">
+        <v>0.03252018869180705</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01613985193682999</v>
+        <v>0.1169494472828322</v>
       </c>
       <c r="C68">
-        <v>-0.03621685778216239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02801078441632291</v>
+      </c>
+      <c r="D68">
+        <v>0.2593731623364642</v>
+      </c>
+      <c r="E68">
+        <v>0.08742194687747594</v>
+      </c>
+      <c r="F68">
+        <v>-0.004946709765509217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.00976416073550194</v>
+        <v>0.03923123660298674</v>
       </c>
       <c r="C69">
-        <v>-0.03190254944067409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.0009607152108898417</v>
+      </c>
+      <c r="D69">
+        <v>-0.008261625293291105</v>
+      </c>
+      <c r="E69">
+        <v>-0.0235617399140139</v>
+      </c>
+      <c r="F69">
+        <v>0.0009670801215882014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001240138753098869</v>
+        <v>0.06246504183192214</v>
       </c>
       <c r="C70">
-        <v>-0.03300027784361955</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0288344025418675</v>
+      </c>
+      <c r="D70">
+        <v>-0.02947064014532995</v>
+      </c>
+      <c r="E70">
+        <v>0.04249218513344529</v>
+      </c>
+      <c r="F70">
+        <v>0.1916210784058446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.020560904425127</v>
+        <v>0.1363425542637047</v>
       </c>
       <c r="C71">
-        <v>-0.04446863198023245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03270566890829182</v>
+      </c>
+      <c r="D71">
+        <v>0.2732302405130987</v>
+      </c>
+      <c r="E71">
+        <v>0.09723151805270228</v>
+      </c>
+      <c r="F71">
+        <v>-0.009829279269601525</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.04002914563506065</v>
+        <v>0.1416411621012416</v>
       </c>
       <c r="C72">
-        <v>-0.1177482306278605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02526179529435789</v>
+      </c>
+      <c r="D72">
+        <v>-0.0006959246365445224</v>
+      </c>
+      <c r="E72">
+        <v>-0.0397230057424701</v>
+      </c>
+      <c r="F72">
+        <v>-0.03480253136115438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04415284062095632</v>
+        <v>0.2010033217796108</v>
       </c>
       <c r="C73">
-        <v>-0.2068541016410871</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01208681146787028</v>
+      </c>
+      <c r="D73">
+        <v>-0.01588530663338868</v>
+      </c>
+      <c r="E73">
+        <v>-0.06410234979493858</v>
+      </c>
+      <c r="F73">
+        <v>-0.03706418978923517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02542798813841922</v>
+        <v>0.09465556741211337</v>
       </c>
       <c r="C74">
-        <v>-0.1133362737763742</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01257933702655146</v>
+      </c>
+      <c r="D74">
+        <v>-0.01881457645076182</v>
+      </c>
+      <c r="E74">
+        <v>-0.04579995123967109</v>
+      </c>
+      <c r="F74">
+        <v>-0.05779195440762979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.0478676030677455</v>
+        <v>0.1285434929458048</v>
       </c>
       <c r="C75">
-        <v>-0.1321641189149797</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02692470848476962</v>
+      </c>
+      <c r="D75">
+        <v>-0.03205787710270892</v>
+      </c>
+      <c r="E75">
+        <v>-0.05992760076648763</v>
+      </c>
+      <c r="F75">
+        <v>-0.02043637000153836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.001063993127918591</v>
+        <v>0.002268911354202068</v>
       </c>
       <c r="C76">
-        <v>-0.008711506848494463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0005898031635848951</v>
+      </c>
+      <c r="D76">
+        <v>0.001618638859245448</v>
+      </c>
+      <c r="E76">
+        <v>-0.000230470632427718</v>
+      </c>
+      <c r="F76">
+        <v>-0.0033089238228146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02696249670100665</v>
+        <v>0.08017869865703546</v>
       </c>
       <c r="C77">
-        <v>-0.098599667606744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008150494847859411</v>
+      </c>
+      <c r="D77">
+        <v>-0.1193353053252095</v>
+      </c>
+      <c r="E77">
+        <v>-0.04193112287497064</v>
+      </c>
+      <c r="F77">
+        <v>-0.02268734921858158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06399634071160842</v>
+        <v>0.1033057012807302</v>
       </c>
       <c r="C78">
-        <v>-0.1112416282192667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03959175008235642</v>
+      </c>
+      <c r="D78">
+        <v>-0.1146621893941139</v>
+      </c>
+      <c r="E78">
+        <v>-0.07781919790964949</v>
+      </c>
+      <c r="F78">
+        <v>-0.04914113521122179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04214832997981587</v>
+        <v>0.1640746488303077</v>
       </c>
       <c r="C79">
-        <v>-0.141552195267977</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02101228385078212</v>
+      </c>
+      <c r="D79">
+        <v>-0.01861706102357922</v>
+      </c>
+      <c r="E79">
+        <v>-0.04874714433377175</v>
+      </c>
+      <c r="F79">
+        <v>-0.0142193181456463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.006145852935605147</v>
+        <v>0.08105377863665897</v>
       </c>
       <c r="C80">
-        <v>-0.09493060172275827</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.001093121351667388</v>
+      </c>
+      <c r="D80">
+        <v>-0.05747590295697526</v>
+      </c>
+      <c r="E80">
+        <v>-0.03670367546909283</v>
+      </c>
+      <c r="F80">
+        <v>0.02692006915214789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04691185190299418</v>
+        <v>0.1228816644638339</v>
       </c>
       <c r="C81">
-        <v>-0.1527093642356309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03095412682294639</v>
+      </c>
+      <c r="D81">
+        <v>-0.01689794063654597</v>
+      </c>
+      <c r="E81">
+        <v>-0.05922012084179232</v>
+      </c>
+      <c r="F81">
+        <v>-0.01937307700398901</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04164419144651864</v>
+        <v>0.1646659486939742</v>
       </c>
       <c r="C82">
-        <v>-0.1700794837613233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02328473033507457</v>
+      </c>
+      <c r="D82">
+        <v>-0.00679935217908636</v>
+      </c>
+      <c r="E82">
+        <v>-0.02956577457342016</v>
+      </c>
+      <c r="F82">
+        <v>-0.08051850950745339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01696670703213449</v>
+        <v>0.06170888221693555</v>
       </c>
       <c r="C83">
-        <v>-0.07869586268826652</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.00320506764060142</v>
+      </c>
+      <c r="D83">
+        <v>-0.04910883712623955</v>
+      </c>
+      <c r="E83">
+        <v>-0.005526162313698336</v>
+      </c>
+      <c r="F83">
+        <v>0.03346806176742176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0255358186386193</v>
+        <v>0.0584201448528241</v>
       </c>
       <c r="C84">
-        <v>-0.07055833828153141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01088729257256399</v>
+      </c>
+      <c r="D84">
+        <v>-0.06527102597609186</v>
+      </c>
+      <c r="E84">
+        <v>-0.006658414463962081</v>
+      </c>
+      <c r="F84">
+        <v>-0.006936960246767623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04195598201202963</v>
+        <v>0.1380078870974531</v>
       </c>
       <c r="C85">
-        <v>-0.117218362940609</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02676810390833347</v>
+      </c>
+      <c r="D85">
+        <v>-0.01205442951255798</v>
+      </c>
+      <c r="E85">
+        <v>-0.03930753363416042</v>
+      </c>
+      <c r="F85">
+        <v>-0.04786831422873976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02266352016165736</v>
+        <v>0.09618457345873044</v>
       </c>
       <c r="C86">
-        <v>-0.1089737664993176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006995624478553924</v>
+      </c>
+      <c r="D86">
+        <v>-0.03831868767348318</v>
+      </c>
+      <c r="E86">
+        <v>-0.2072411545894626</v>
+      </c>
+      <c r="F86">
+        <v>0.9106587025916814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04673178683328507</v>
+        <v>0.09579753588846686</v>
       </c>
       <c r="C87">
-        <v>-0.1100977719793564</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02168925317275583</v>
+      </c>
+      <c r="D87">
+        <v>-0.09167953305986078</v>
+      </c>
+      <c r="E87">
+        <v>0.05325795717731557</v>
+      </c>
+      <c r="F87">
+        <v>-0.05350015557375043</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01534928235779032</v>
+        <v>0.06076845958300595</v>
       </c>
       <c r="C88">
-        <v>-0.05528266522480833</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002410548020968926</v>
+      </c>
+      <c r="D88">
+        <v>-0.05052206759310914</v>
+      </c>
+      <c r="E88">
+        <v>-0.0250792328236716</v>
+      </c>
+      <c r="F88">
+        <v>-0.01353748590642458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002702829034123277</v>
+        <v>0.1347229747981116</v>
       </c>
       <c r="C89">
-        <v>-0.07826237366448539</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01021849092770334</v>
+      </c>
+      <c r="D89">
+        <v>0.2512768394616206</v>
+      </c>
+      <c r="E89">
+        <v>0.08990043014496639</v>
+      </c>
+      <c r="F89">
+        <v>0.004163411660275783</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02012119756421496</v>
+        <v>0.1483824484327235</v>
       </c>
       <c r="C90">
-        <v>-0.04908153281098662</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02852962151755595</v>
+      </c>
+      <c r="D90">
+        <v>0.2656921051869494</v>
+      </c>
+      <c r="E90">
+        <v>0.1113174175754491</v>
+      </c>
+      <c r="F90">
+        <v>0.002669993409419075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02513799642097818</v>
+        <v>0.1196772713818288</v>
       </c>
       <c r="C91">
-        <v>-0.09197044115274944</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01748200086576471</v>
+      </c>
+      <c r="D91">
+        <v>0.01045544757893275</v>
+      </c>
+      <c r="E91">
+        <v>-0.05678189159912007</v>
+      </c>
+      <c r="F91">
+        <v>0.001792698082404826</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001389303900359454</v>
+        <v>0.1483189450334108</v>
       </c>
       <c r="C92">
-        <v>-0.06998359334460448</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02050343117784801</v>
+      </c>
+      <c r="D92">
+        <v>0.291686691976328</v>
+      </c>
+      <c r="E92">
+        <v>0.1034828785144875</v>
+      </c>
+      <c r="F92">
+        <v>0.01462159929401759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01477535663984892</v>
+        <v>0.1515176374779683</v>
       </c>
       <c r="C93">
-        <v>-0.05569475026060262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02454748219238341</v>
+      </c>
+      <c r="D93">
+        <v>0.265567522399296</v>
+      </c>
+      <c r="E93">
+        <v>0.07855077025206761</v>
+      </c>
+      <c r="F93">
+        <v>-0.001833938524348604</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04903071315184261</v>
+        <v>0.1318099787299632</v>
       </c>
       <c r="C94">
-        <v>-0.1575361034328755</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02396403390396758</v>
+      </c>
+      <c r="D94">
+        <v>-0.04425571746988916</v>
+      </c>
+      <c r="E94">
+        <v>-0.05875568875108787</v>
+      </c>
+      <c r="F94">
+        <v>-0.0371507698822036</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.04051891700632618</v>
+        <v>0.1257039557688169</v>
       </c>
       <c r="C95">
-        <v>-0.1336960712124313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.00440834412501592</v>
+      </c>
+      <c r="D95">
+        <v>-0.092774470627148</v>
+      </c>
+      <c r="E95">
+        <v>-0.04874213751807892</v>
+      </c>
+      <c r="F95">
+        <v>0.01142065737537239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9671745252031761</v>
+        <v>0.10077488767864</v>
       </c>
       <c r="C96">
-        <v>-0.2354313494145162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9884266218639961</v>
+      </c>
+      <c r="D96">
+        <v>0.03879183181751208</v>
+      </c>
+      <c r="E96">
+        <v>-0.05600697053921297</v>
+      </c>
+      <c r="F96">
+        <v>-0.04301936039880651</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.0175747709160646</v>
+        <v>0.1905104413163955</v>
       </c>
       <c r="C97">
-        <v>-0.1775562976116386</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009413782742907387</v>
+      </c>
+      <c r="D97">
+        <v>0.0174769367757924</v>
+      </c>
+      <c r="E97">
+        <v>-0.0152001883732069</v>
+      </c>
+      <c r="F97">
+        <v>0.07850030701513987</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03616895426135956</v>
+        <v>0.2062148189844867</v>
       </c>
       <c r="C98">
-        <v>-0.2029359878563771</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007270607342925176</v>
+      </c>
+      <c r="D98">
+        <v>-0.006488146509957482</v>
+      </c>
+      <c r="E98">
+        <v>0.08821909186805757</v>
+      </c>
+      <c r="F98">
+        <v>0.09028502728415969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003473929256055224</v>
+        <v>0.05555655991653059</v>
       </c>
       <c r="C99">
-        <v>-0.05192241270948671</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004599539157101126</v>
+      </c>
+      <c r="D99">
+        <v>-0.03799005158119295</v>
+      </c>
+      <c r="E99">
+        <v>-0.02344744658296257</v>
+      </c>
+      <c r="F99">
+        <v>0.0001600602816883127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.002599700698783611</v>
+        <v>0.1240096954523242</v>
       </c>
       <c r="C100">
-        <v>-0.1398091552606924</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05311418545615391</v>
+      </c>
+      <c r="D100">
+        <v>-0.3496629614917182</v>
+      </c>
+      <c r="E100">
+        <v>0.8876971438656031</v>
+      </c>
+      <c r="F100">
+        <v>0.1338504229004828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01581018879852941</v>
+        <v>0.0264969178939703</v>
       </c>
       <c r="C101">
-        <v>-0.02784763122020698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008133846701786194</v>
+      </c>
+      <c r="D101">
+        <v>-0.03279700127860521</v>
+      </c>
+      <c r="E101">
+        <v>-0.01022414249243111</v>
+      </c>
+      <c r="F101">
+        <v>0.01202421795351627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
